--- a/individual_case_outputs/avey/284.xlsx
+++ b/individual_case_outputs/avey/284.xlsx
@@ -905,7 +905,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>rheumatic fever</t>
+          <t>infective endocarditis</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>rheumatic fever</t>
+          <t>strep throat</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1055,7 +1055,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>rheumatic fever</t>
+          <t>scarlet fever</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
